--- a/biology/Zoologie/Buthacus_algerianus/Buthacus_algerianus.xlsx
+++ b/biology/Zoologie/Buthacus_algerianus/Buthacus_algerianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus algerianus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la wilaya de Béni Abbès en Algérie[1]. Elle se rencontre vers Béni Abbès[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la wilaya de Béni Abbès en Algérie. Elle se rencontre vers Béni Abbès.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 43,4 mm et la femelle paratype 43,9 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 43,4 mm et la femelle paratype 43,9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys algerianus par Lourenço en 2006. Elle est placée en synonymie avec Buthacus ziegleri par Kovařík, Lowe et Šťáhlavský en 2016[3]. Elle est relevée de synonymie et élevée au rang d'espèce par Lourenço en 2017[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys algerianus par Lourenço en 2006. Elle est placée en synonymie avec Buthacus ziegleri par Kovařík, Lowe et Šťáhlavský en 2016. Elle est relevée de synonymie et élevée au rang d'espèce par Lourenço en 2017.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Algérie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lourenço, 2006 : « Further considerations on the genus Buthacus Birula, 1908 (Scorpiones, Buthidae), with a description of one new species and two new subspecies. » Boletín Sociedad Entomológica Aragonesa, no 38, p. 59-70 (texte intégral).</t>
         </is>
